--- a/doc/15. 샘플 데이터 생성 쿼리/datas.xlsx
+++ b/doc/15. 샘플 데이터 생성 쿼리/datas.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qkdlf\Project\front-end\movie\doc\15. 샘플 데이터 생성 쿼리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F92B9C5-D4DC-46E1-8CD0-AB45203FAAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B81D591-A491-4204-80B5-8B7173E95741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11268" yWindow="1740" windowWidth="10560" windowHeight="11220" xr2:uid="{77EE845D-5687-464E-84A8-F80A34A6F5EB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22044" windowHeight="13176" xr2:uid="{77EE845D-5687-464E-84A8-F80A34A6F5EB}"/>
   </bookViews>
   <sheets>
     <sheet name="screen" sheetId="1" r:id="rId1"/>
-    <sheet name="movie" sheetId="3" r:id="rId2"/>
-    <sheet name="domain" sheetId="2" r:id="rId3"/>
+    <sheet name="cinema" sheetId="6" r:id="rId2"/>
+    <sheet name="movie" sheetId="3" r:id="rId3"/>
+    <sheet name="member" sheetId="4" r:id="rId4"/>
+    <sheet name="member_ship" sheetId="5" r:id="rId5"/>
+    <sheet name="dummy" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="272">
   <si>
     <t>SCREEN_CODE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,469 +66,923 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>theater_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-03-20:13:10:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen_3</t>
+  </si>
+  <si>
+    <t>screen_4</t>
+  </si>
+  <si>
+    <t>screen_5</t>
+  </si>
+  <si>
+    <t>screen_6</t>
+  </si>
+  <si>
+    <t>screen_7</t>
+  </si>
+  <si>
+    <t>screen_8</t>
+  </si>
+  <si>
+    <t>screen_9</t>
+  </si>
+  <si>
+    <t>screen_10</t>
+  </si>
+  <si>
+    <t>screen_11</t>
+  </si>
+  <si>
+    <t>2022-03-20:16:30:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-03-20:19:50:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-03-20:13:30:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-03-20:14:40:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-03-20:15:50:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-03-20:17:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-03-20:18:10:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-03-20:19:20:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-03-20:20:30:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movie_2</t>
+  </si>
+  <si>
+    <t>movie_3</t>
+  </si>
+  <si>
+    <t>theater_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theater_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theater_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOVIE_TITLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOVIE_SPECTATOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movie_4</t>
+  </si>
+  <si>
     <t>movie_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theater_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-03-20:13:10:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>screen_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>screen_3</t>
-  </si>
-  <si>
-    <t>screen_4</t>
-  </si>
-  <si>
-    <t>screen_5</t>
-  </si>
-  <si>
-    <t>screen_6</t>
-  </si>
-  <si>
-    <t>screen_7</t>
-  </si>
-  <si>
-    <t>screen_8</t>
-  </si>
-  <si>
-    <t>screen_9</t>
-  </si>
-  <si>
-    <t>screen_10</t>
-  </si>
-  <si>
-    <t>screen_11</t>
-  </si>
-  <si>
-    <t>2022-03-20:16:30:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-03-20:19:50:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-03-20:13:30:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-03-20:14:40:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-03-20:15:50:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-03-20:17:00:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-03-20:18:10:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-03-20:19:20:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-03-20:20:30:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더 배트맨</t>
+  </si>
+  <si>
+    <t>이상한 나라의 수학자</t>
+  </si>
+  <si>
+    <t>메리 미</t>
+  </si>
+  <si>
+    <t>블랙 라이트</t>
+  </si>
+  <si>
+    <t>movie_5</t>
+  </si>
+  <si>
+    <t>movie_6</t>
+  </si>
+  <si>
+    <t>movie_7</t>
+  </si>
+  <si>
+    <t>movie_8</t>
+  </si>
+  <si>
+    <t>movie_9</t>
+  </si>
+  <si>
+    <t>movie_10</t>
+  </si>
+  <si>
+    <t>movie_11</t>
+  </si>
+  <si>
+    <t>movie_12</t>
+  </si>
+  <si>
+    <t>movie_13</t>
+  </si>
+  <si>
+    <t>movie_14</t>
+  </si>
+  <si>
+    <t>movie_15</t>
+  </si>
+  <si>
+    <t>movie_16</t>
+  </si>
+  <si>
+    <t>movie_17</t>
+  </si>
+  <si>
+    <t>movie_18</t>
+  </si>
+  <si>
+    <t>movie_19</t>
+  </si>
+  <si>
+    <t>문폴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안테벨룸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스펜서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극장판 주술회전 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드라이브 마이 카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 히어로 아카데미아 더 무비: 월드 히어로즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유어 러브 송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가무악칠채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리가 사랑이라고 믿는 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극장판 바다 탐험태 옥토넛 : 해저동굴 대탈출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스파이더맨: 노 웨이 홈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언차티드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이들의 아파트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벤느망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아망떼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movie_20</t>
+  </si>
+  <si>
+    <t>movie_21</t>
+  </si>
+  <si>
+    <t>movie_22</t>
+  </si>
+  <si>
+    <t>movie_23</t>
+  </si>
+  <si>
+    <t>movie_24</t>
+  </si>
+  <si>
+    <t>movie_25</t>
+  </si>
+  <si>
+    <t>movie_26</t>
+  </si>
+  <si>
+    <t>movie_27</t>
+  </si>
+  <si>
+    <t>movie_28</t>
+  </si>
+  <si>
+    <t>movie_29</t>
+  </si>
+  <si>
+    <t>movie_30</t>
+  </si>
+  <si>
+    <t>나이트메어 앨리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리디밍 러브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도어맨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 남자는 타이타닉을 보고 싶지 않았다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극장판 안녕 자두야: 제주도의 비밀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인민을 위해 복무하라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매미소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소피의 세계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 촛불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이돌레시피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen_12</t>
+  </si>
+  <si>
+    <t>2022-03-20:17:15:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movie_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theater_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen_13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen_14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen_15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen_16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movie_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-03-20:10:25:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-03-20:13:50:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-03-20:21:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theater_9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen_17</t>
+  </si>
+  <si>
+    <t>screen_18</t>
+  </si>
+  <si>
+    <t>screen_19</t>
+  </si>
+  <si>
+    <t>screen_20</t>
+  </si>
+  <si>
+    <t>screen_21</t>
+  </si>
+  <si>
+    <t>screen_22</t>
+  </si>
+  <si>
+    <t>screen_23</t>
+  </si>
+  <si>
+    <t>screen_24</t>
+  </si>
+  <si>
+    <t>screen_25</t>
   </si>
   <si>
     <t>movie_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-03-20:10:45:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-03-20:15:35:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-03-20:18:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-03-20:20:25:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-03-20:22:50:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen_26</t>
+  </si>
+  <si>
+    <t>screen_27</t>
+  </si>
+  <si>
+    <t>screen_28</t>
+  </si>
+  <si>
+    <t>2022-03-20:12:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-03-20:14:25:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-03-20:19:15:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theater_8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theater_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theater_11</t>
+  </si>
+  <si>
+    <t>theater_12</t>
+  </si>
+  <si>
+    <t>movie_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movie_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>movie_3</t>
-  </si>
-  <si>
-    <t>theater_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theater_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theater_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOVIE_TITLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOVIE_SPECTATOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>movie_4</t>
-  </si>
-  <si>
-    <t>이상한 나라의 수학자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메리 미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>블랙 라이트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>더 배트맨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>movie_1</t>
-  </si>
-  <si>
-    <t>더 배트맨</t>
-  </si>
-  <si>
-    <t>이상한 나라의 수학자</t>
-  </si>
-  <si>
-    <t>메리 미</t>
-  </si>
-  <si>
-    <t>블랙 라이트</t>
-  </si>
-  <si>
-    <t>movie_5</t>
-  </si>
-  <si>
-    <t>movie_6</t>
-  </si>
-  <si>
-    <t>movie_7</t>
-  </si>
-  <si>
-    <t>movie_8</t>
-  </si>
-  <si>
-    <t>movie_9</t>
-  </si>
-  <si>
-    <t>movie_10</t>
-  </si>
-  <si>
-    <t>movie_11</t>
-  </si>
-  <si>
-    <t>movie_12</t>
-  </si>
-  <si>
-    <t>movie_13</t>
-  </si>
-  <si>
-    <t>movie_14</t>
-  </si>
-  <si>
-    <t>movie_15</t>
-  </si>
-  <si>
-    <t>movie_16</t>
-  </si>
-  <si>
-    <t>movie_17</t>
-  </si>
-  <si>
-    <t>movie_18</t>
-  </si>
-  <si>
-    <t>movie_19</t>
-  </si>
-  <si>
-    <t>문폴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안테벨룸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스펜서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>극장판 주술회전 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드라이브 마이 카</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나의 히어로 아카데미아 더 무비: 월드 히어로즈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유어 러브 송</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가무악칠채</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리가 사랑이라고 믿는 것</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>극장판 바다 탐험태 옥토넛 : 해저동굴 대탈출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스파이더맨: 노 웨이 홈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>언차티드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고양이들의 아파트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레벤느망</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아망떼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>movie_20</t>
-  </si>
-  <si>
-    <t>movie_21</t>
-  </si>
-  <si>
-    <t>movie_22</t>
-  </si>
-  <si>
-    <t>movie_23</t>
-  </si>
-  <si>
-    <t>movie_24</t>
-  </si>
-  <si>
-    <t>movie_25</t>
-  </si>
-  <si>
-    <t>movie_26</t>
-  </si>
-  <si>
-    <t>movie_27</t>
-  </si>
-  <si>
-    <t>movie_28</t>
-  </si>
-  <si>
-    <t>movie_29</t>
-  </si>
-  <si>
-    <t>movie_30</t>
-  </si>
-  <si>
-    <t>나이트메어 앨리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리디밍 러브</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도어맨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피그</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그 남자는 타이타닉을 보고 싶지 않았다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>극장판 안녕 자두야: 제주도의 비밀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인민을 위해 복무하라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매미소리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소피의 세계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나의 촛불</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이돌레시피</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>screen_12</t>
-  </si>
-  <si>
-    <t>2022-03-20:17:15:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>movie_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theater_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>screen_13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>screen_14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>screen_15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>screen_16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>movie_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-03-20:10:25:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-03-20:13:50:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-03-20:21:00:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theater_9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>screen_17</t>
-  </si>
-  <si>
-    <t>screen_18</t>
-  </si>
-  <si>
-    <t>screen_19</t>
-  </si>
-  <si>
-    <t>screen_20</t>
-  </si>
-  <si>
-    <t>screen_21</t>
-  </si>
-  <si>
-    <t>screen_22</t>
-  </si>
-  <si>
-    <t>screen_23</t>
-  </si>
-  <si>
-    <t>screen_24</t>
-  </si>
-  <si>
-    <t>screen_25</t>
-  </si>
-  <si>
-    <t>movie_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-03-20:10:45:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-03-20:15:35:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-03-20:18:00:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-03-20:20:25:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-03-20:22:50:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>screen_26</t>
-  </si>
-  <si>
-    <t>screen_27</t>
-  </si>
-  <si>
-    <t>screen_28</t>
-  </si>
-  <si>
-    <t>2022-03-20:12:00:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-03-20:14:25:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-03-20:19:15:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theater_8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theater_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theater_11</t>
-  </si>
-  <si>
-    <t>theater_12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEM_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEM_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEM_SEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEM_BIRTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEM_PHONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEM_ADDR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEM_EMAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEM_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEM_PWD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mem_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mem_2</t>
+  </si>
+  <si>
+    <t>mem_3</t>
+  </si>
+  <si>
+    <t>mem_4</t>
+  </si>
+  <si>
+    <t>mem_5</t>
+  </si>
+  <si>
+    <t>mem_6</t>
+  </si>
+  <si>
+    <t>mem_7</t>
+  </si>
+  <si>
+    <t>mem_8</t>
+  </si>
+  <si>
+    <t>mem_9</t>
+  </si>
+  <si>
+    <t>mem_10</t>
+  </si>
+  <si>
+    <t>홍길일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길삼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길육</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길칠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길팔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길십</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-1111-1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-1111-1112</t>
+  </si>
+  <si>
+    <t>010-1111-1113</t>
+  </si>
+  <si>
+    <t>010-1111-1114</t>
+  </si>
+  <si>
+    <t>010-1111-1115</t>
+  </si>
+  <si>
+    <t>010-1111-1116</t>
+  </si>
+  <si>
+    <t>010-1111-1117</t>
+  </si>
+  <si>
+    <t>010-1111-1118</t>
+  </si>
+  <si>
+    <t>010-1111-1119</t>
+  </si>
+  <si>
+    <t>010-1111-1120</t>
+  </si>
+  <si>
+    <t>서울</t>
+  </si>
+  <si>
+    <t>서울</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user1@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user2@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user3@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user4@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user5@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user6@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user7@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user8@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user9@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user10@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user2</t>
+  </si>
+  <si>
+    <t>user3</t>
+  </si>
+  <si>
+    <t>user4</t>
+  </si>
+  <si>
+    <t>user5</t>
+  </si>
+  <si>
+    <t>user6</t>
+  </si>
+  <si>
+    <t>user7</t>
+  </si>
+  <si>
+    <t>user8</t>
+  </si>
+  <si>
+    <t>user9</t>
+  </si>
+  <si>
+    <t>user10</t>
+  </si>
+  <si>
+    <t>SHIP_SEQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIP_RATING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브론즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이아몬드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CINEMA_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CINEMA_LOCATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CINEMA_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cinema_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cinema_2</t>
+  </si>
+  <si>
+    <t>cinema_3</t>
+  </si>
+  <si>
+    <t>cinema_4</t>
+  </si>
+  <si>
+    <t>cinema_5</t>
+  </si>
+  <si>
+    <t>cinema_6</t>
+  </si>
+  <si>
+    <t>cinema_7</t>
+  </si>
+  <si>
+    <t>cinema_8</t>
+  </si>
+  <si>
+    <t>cinema_9</t>
+  </si>
+  <si>
+    <t>cinema_10</t>
+  </si>
+  <si>
+    <t>cinema_11</t>
+  </si>
+  <si>
+    <t>cinema_12</t>
+  </si>
+  <si>
+    <t>cinema_13</t>
+  </si>
+  <si>
+    <t>cinema_14</t>
+  </si>
+  <si>
+    <t>cinema_15</t>
+  </si>
+  <si>
+    <t>cinema_16</t>
+  </si>
+  <si>
+    <t>cinema_17</t>
+  </si>
+  <si>
+    <t>cinema_18</t>
+  </si>
+  <si>
+    <t>cinema_19</t>
+  </si>
+  <si>
+    <t>cinema_20</t>
+  </si>
+  <si>
+    <t>cinema_21</t>
+  </si>
+  <si>
+    <t>cinema_22</t>
+  </si>
+  <si>
+    <t>cinema_23</t>
+  </si>
+  <si>
+    <t>cinema_24</t>
+  </si>
+  <si>
+    <t>cinema_25</t>
+  </si>
+  <si>
+    <t>cinema_26</t>
+  </si>
+  <si>
+    <t>cinema_27</t>
+  </si>
+  <si>
+    <t>cinema_28</t>
+  </si>
+  <si>
+    <t>cinema_29</t>
+  </si>
+  <si>
+    <t>cinema_30</t>
+  </si>
+  <si>
+    <t>cinema_31</t>
+  </si>
+  <si>
+    <t>cinema_32</t>
+  </si>
+  <si>
+    <t>cinema_33</t>
+  </si>
+  <si>
+    <t>가산디지털</t>
+  </si>
+  <si>
+    <t>가양</t>
+  </si>
+  <si>
+    <t>강동</t>
+  </si>
+  <si>
+    <t>건대입구</t>
+  </si>
+  <si>
+    <t>김포공항</t>
+  </si>
+  <si>
+    <t>노원</t>
+  </si>
+  <si>
+    <t>당진</t>
+  </si>
+  <si>
+    <t>대전(백화점)</t>
+  </si>
+  <si>
+    <t>대전관저</t>
+  </si>
+  <si>
+    <t>대전둔산(월평동)</t>
+  </si>
+  <si>
+    <t>대전센트럴</t>
+  </si>
+  <si>
+    <t>도곡</t>
+  </si>
+  <si>
+    <t>독산</t>
+  </si>
+  <si>
+    <t>브로드웨이(신사)</t>
+  </si>
+  <si>
+    <t>서산</t>
+  </si>
+  <si>
+    <t>서울대입구</t>
+  </si>
+  <si>
+    <t>서청주(아울렛)</t>
+  </si>
+  <si>
+    <t>수락산</t>
+  </si>
+  <si>
+    <t>수유</t>
+  </si>
+  <si>
+    <t>신도림</t>
+  </si>
+  <si>
+    <t>아산터미널</t>
+  </si>
+  <si>
+    <t>에비뉴엘(명동)</t>
+  </si>
+  <si>
+    <t>영등포</t>
+  </si>
+  <si>
+    <t>용산</t>
+  </si>
+  <si>
+    <t>월드타워</t>
+  </si>
+  <si>
+    <t>은평(롯데몰)</t>
+  </si>
+  <si>
+    <t>중랑</t>
+  </si>
+  <si>
+    <t>천안불당</t>
+  </si>
+  <si>
+    <t>청량리</t>
+  </si>
+  <si>
+    <t>청주용암</t>
+  </si>
+  <si>
+    <t>충주(모다아울렛)</t>
+  </si>
+  <si>
+    <t>합청</t>
+  </si>
+  <si>
+    <t>홍대입구</t>
+  </si>
+  <si>
+    <t>충청/대전</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -536,6 +993,15 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -559,21 +1025,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -887,8 +1360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9B8C9B-C130-4475-9A85-67F7B665064A}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -925,483 +1398,472 @@
         <v>44640</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="str">
-        <f>VLOOKUP(domain!A2,domain!$A$1:$C$5,2,FALSE)</f>
-        <v>movie_1</v>
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>130</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>44640</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="str">
-        <f>VLOOKUP(domain!A2,domain!$A$1:$C$5,2,FALSE)</f>
-        <v>movie_1</v>
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>130</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
         <v>44640</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="str">
-        <f>VLOOKUP(domain!A2,domain!$A$1:$C$5,2,FALSE)</f>
-        <v>movie_1</v>
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>130</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
         <v>44640</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="str">
-        <f>VLOOKUP(domain!A2,domain!$A$1:$C$5,2,FALSE)</f>
-        <v>movie_1</v>
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>131</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
         <v>44640</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="str">
-        <f>VLOOKUP(domain!A$3,domain!$A$1:$C$5,2,FALSE)</f>
-        <v>movie_2</v>
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>131</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1">
         <v>44640</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="str">
-        <f>VLOOKUP(domain!A$3,domain!$A$1:$C$5,2,FALSE)</f>
-        <v>movie_2</v>
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>131</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1">
         <v>44640</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="str">
-        <f>VLOOKUP(domain!A$3,domain!$A$1:$C$5,2,FALSE)</f>
-        <v>movie_2</v>
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>131</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1">
         <v>44640</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="str">
-        <f>VLOOKUP(domain!A$3,domain!$A$1:$C$5,2,FALSE)</f>
-        <v>movie_2</v>
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>131</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1">
         <v>44640</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="str">
-        <f>VLOOKUP(domain!A$3,domain!$A$1:$C$5,2,FALSE)</f>
-        <v>movie_2</v>
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>131</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1">
         <v>44640</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="str">
-        <f>VLOOKUP(domain!A$3,domain!$A$1:$C$5,2,FALSE)</f>
-        <v>movie_2</v>
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>131</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1">
         <v>44640</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="str">
-        <f>VLOOKUP(domain!A$4,domain!$A$1:$C$5,2,FALSE)</f>
-        <v>movie_3</v>
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>132</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B13" s="1">
         <v>44640</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B14" s="1">
         <v>44640</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B15" s="1">
         <v>44640</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E15" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B16" s="1">
         <v>44640</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B17" s="1">
         <v>44640</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B18" s="1">
         <v>44640</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B19" s="1">
         <v>44640</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D19" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B20" s="1">
         <v>44640</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B21" s="1">
         <v>44640</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D21" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E21" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B22" s="1">
         <v>44640</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E22" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B23" s="1">
         <v>44640</v>
       </c>
       <c r="C23" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D23" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E23" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B24" s="1">
         <v>44640</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D24" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E24" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B25" s="1">
         <v>44640</v>
       </c>
       <c r="C25" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D25" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E25" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B26" s="1">
         <v>44640</v>
       </c>
       <c r="C26" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D26" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E26" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B27" s="1">
         <v>44640</v>
       </c>
       <c r="C27" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D27" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E27" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B28" s="1">
         <v>44640</v>
       </c>
       <c r="C28" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D28" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E28" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B29" s="1">
         <v>44640</v>
       </c>
       <c r="C29" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D29" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E29" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1412,6 +1874,401 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{743518F1-6DFF-4A4E-A211-B8EFA567D078}">
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>214</v>
+      </c>
+      <c r="B11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B12" t="s">
+        <v>248</v>
+      </c>
+      <c r="C12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>216</v>
+      </c>
+      <c r="B13" t="s">
+        <v>249</v>
+      </c>
+      <c r="C13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>217</v>
+      </c>
+      <c r="B14" t="s">
+        <v>250</v>
+      </c>
+      <c r="C14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B15" t="s">
+        <v>251</v>
+      </c>
+      <c r="C15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>219</v>
+      </c>
+      <c r="B16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>220</v>
+      </c>
+      <c r="B17" t="s">
+        <v>253</v>
+      </c>
+      <c r="C17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>221</v>
+      </c>
+      <c r="B18" t="s">
+        <v>254</v>
+      </c>
+      <c r="C18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>222</v>
+      </c>
+      <c r="B19" t="s">
+        <v>255</v>
+      </c>
+      <c r="C19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>223</v>
+      </c>
+      <c r="B20" t="s">
+        <v>256</v>
+      </c>
+      <c r="C20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>224</v>
+      </c>
+      <c r="B21" t="s">
+        <v>257</v>
+      </c>
+      <c r="C21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>225</v>
+      </c>
+      <c r="B22" t="s">
+        <v>258</v>
+      </c>
+      <c r="C22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>226</v>
+      </c>
+      <c r="B23" t="s">
+        <v>259</v>
+      </c>
+      <c r="C23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>227</v>
+      </c>
+      <c r="B24" t="s">
+        <v>260</v>
+      </c>
+      <c r="C24" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>228</v>
+      </c>
+      <c r="B25" t="s">
+        <v>261</v>
+      </c>
+      <c r="C25" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>229</v>
+      </c>
+      <c r="B26" t="s">
+        <v>262</v>
+      </c>
+      <c r="C26" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>230</v>
+      </c>
+      <c r="B27" t="s">
+        <v>263</v>
+      </c>
+      <c r="C27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>231</v>
+      </c>
+      <c r="B28" t="s">
+        <v>264</v>
+      </c>
+      <c r="C28" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>232</v>
+      </c>
+      <c r="B29" t="s">
+        <v>265</v>
+      </c>
+      <c r="C29" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>233</v>
+      </c>
+      <c r="B30" t="s">
+        <v>266</v>
+      </c>
+      <c r="C30" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>234</v>
+      </c>
+      <c r="B31" t="s">
+        <v>267</v>
+      </c>
+      <c r="C31" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>235</v>
+      </c>
+      <c r="B32" t="s">
+        <v>268</v>
+      </c>
+      <c r="C32" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>236</v>
+      </c>
+      <c r="B33" t="s">
+        <v>269</v>
+      </c>
+      <c r="C33" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>237</v>
+      </c>
+      <c r="B34" t="s">
+        <v>270</v>
+      </c>
+      <c r="C34" t="s">
+        <v>271</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F75F4A-E58D-4FAB-9211-52F1AF7461B4}">
   <dimension ref="A1:C31"/>
   <sheetViews>
@@ -1431,18 +2288,18 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
         <v>33</v>
-      </c>
-      <c r="C1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C2">
         <v>15</v>
@@ -1450,10 +2307,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C3">
         <v>12</v>
@@ -1461,10 +2318,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C4">
         <v>12</v>
@@ -1472,10 +2329,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C5">
         <v>15</v>
@@ -1483,10 +2340,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -1494,10 +2351,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C7">
         <v>15</v>
@@ -1505,10 +2362,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C8">
         <v>12</v>
@@ -1516,10 +2373,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C9">
         <v>15</v>
@@ -1527,10 +2384,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C10">
         <v>15</v>
@@ -1538,10 +2395,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C11">
         <v>12</v>
@@ -1549,10 +2406,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C12">
         <v>12</v>
@@ -1560,10 +2417,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1571,10 +2428,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -1582,10 +2439,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1593,10 +2450,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C16">
         <v>12</v>
@@ -1604,10 +2461,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C17">
         <v>12</v>
@@ -1615,10 +2472,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1626,10 +2483,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C19">
         <v>15</v>
@@ -1637,10 +2494,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C20">
         <v>15</v>
@@ -1648,10 +2505,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C21">
         <v>15</v>
@@ -1659,10 +2516,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C22">
         <v>15</v>
@@ -1670,10 +2527,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C23">
         <v>15</v>
@@ -1681,10 +2538,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C24">
         <v>12</v>
@@ -1692,10 +2549,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C25">
         <v>12</v>
@@ -1703,10 +2560,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1714,10 +2571,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C27">
         <v>19</v>
@@ -1725,10 +2582,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C28">
         <v>15</v>
@@ -1736,10 +2593,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C29">
         <v>12</v>
@@ -1747,10 +2604,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1758,10 +2615,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C31">
         <v>15</v>
@@ -1773,78 +2630,507 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359143BE-9059-456B-93A7-D74EDD22CAA6}">
-  <dimension ref="A1:C5"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3CE9C0-CEE1-43EF-B610-D42A5529C262}">
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.8984375" bestFit="1" customWidth="1"/>
   </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="1">
+        <v>32874</v>
+      </c>
+      <c r="E2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H2" t="s">
+        <v>187</v>
+      </c>
+      <c r="I2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="1">
+        <v>32875</v>
+      </c>
+      <c r="E3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" t="s">
+        <v>188</v>
+      </c>
+      <c r="I3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="1">
+        <v>32876</v>
+      </c>
+      <c r="E4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4" t="s">
+        <v>189</v>
+      </c>
+      <c r="I4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="1">
+        <v>32877</v>
+      </c>
+      <c r="E5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H5" t="s">
+        <v>190</v>
+      </c>
+      <c r="I5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="1">
+        <v>32878</v>
+      </c>
+      <c r="E6" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H6" t="s">
+        <v>191</v>
+      </c>
+      <c r="I6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" s="1">
+        <v>32879</v>
+      </c>
+      <c r="E7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H7" t="s">
+        <v>192</v>
+      </c>
+      <c r="I7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8" s="1">
+        <v>32880</v>
+      </c>
+      <c r="E8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F8" t="s">
+        <v>176</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H8" t="s">
+        <v>193</v>
+      </c>
+      <c r="I8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" s="1">
+        <v>32881</v>
+      </c>
+      <c r="E9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" t="s">
+        <v>176</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H9" t="s">
+        <v>194</v>
+      </c>
+      <c r="I9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="1">
+        <v>32882</v>
+      </c>
+      <c r="E10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F10" t="s">
+        <v>176</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H10" t="s">
+        <v>195</v>
+      </c>
+      <c r="I10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" s="1">
+        <v>32883</v>
+      </c>
+      <c r="E11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F11" t="s">
+        <v>176</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H11" t="s">
+        <v>196</v>
+      </c>
+      <c r="I11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{331F76C0-483E-4BC0-B50F-BF490DCAF417}"/>
+    <hyperlink ref="G3:G11" r:id="rId2" display="user1@gmail.com" xr:uid="{E9E21A23-8503-4C82-A1E7-43AFB27082CF}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{57C878CB-5CF6-4806-A4C4-91908C189AFF}"/>
+    <hyperlink ref="G4" r:id="rId4" xr:uid="{B8E73E91-A935-44A4-921D-C2BCE63F03A5}"/>
+    <hyperlink ref="G5" r:id="rId5" xr:uid="{A9118FDF-14A0-4223-A1F4-98700E52D3D2}"/>
+    <hyperlink ref="G6" r:id="rId6" xr:uid="{672F9605-4FA7-4D13-8236-BB9B5D9D826F}"/>
+    <hyperlink ref="G7" r:id="rId7" xr:uid="{4FFACDB0-9869-4DE4-9827-24C0F1F20160}"/>
+    <hyperlink ref="G8" r:id="rId8" xr:uid="{819DE88C-F974-4C62-8AC7-DB07A15F0BDC}"/>
+    <hyperlink ref="G9" r:id="rId9" xr:uid="{2BCF03AA-76B3-49BF-AC6F-0950B933EFFE}"/>
+    <hyperlink ref="G10" r:id="rId10" xr:uid="{A0542ECA-FFAF-4248-82D4-A2B8951D3478}"/>
+    <hyperlink ref="G11" r:id="rId11" xr:uid="{707D4E7D-4E5B-48EE-AE00-03A26623E38F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId12"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A55ACF-775C-4334-861E-4CF1213D9CA4}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>197</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>15</v>
+        <v>142</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3">
-        <v>12</v>
+        <v>143</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4">
-        <v>12</v>
+        <v>144</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5">
-        <v>15</v>
+        <v>145</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E4F4A3-6A38-4307-A3B4-FFE3EDDDF237}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>